--- a/xlsx/country_comparison/share_solidarity_supported_mean.xlsx
+++ b/xlsx/country_comparison/share_solidarity_supported_mean.xlsx
@@ -12,12 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
@@ -371,19 +392,61 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.508506616257089</v>
+        <v>0.631630458431804</v>
       </c>
       <c r="C2" t="n">
-        <v>0.603672787979967</v>
+        <v>0.60124684289302</v>
       </c>
       <c r="D2" t="n">
-        <v>0.527551020408163</v>
+        <v>0.654857077234314</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.351045104510451</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.549807212798858</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.666526001044336</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.583415667758793</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.541032956683258</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.555937984002362</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.594680510488257</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/share_solidarity_supported_mean.xlsx
+++ b/xlsx/country_comparison/share_solidarity_supported_mean.xlsx
@@ -419,34 +419,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.631630458431804</v>
+        <v>0.617084851133493</v>
       </c>
       <c r="C2" t="n">
-        <v>0.60124684289302</v>
+        <v>0.592215708100967</v>
       </c>
       <c r="D2" t="n">
-        <v>0.654857077234314</v>
+        <v>0.652044918001583</v>
       </c>
       <c r="E2" t="n">
         <v>0.351045104510451</v>
       </c>
       <c r="F2" t="n">
-        <v>0.549807212798858</v>
+        <v>0.561783834211927</v>
       </c>
       <c r="G2" t="n">
-        <v>0.666526001044336</v>
+        <v>0.663781217165708</v>
       </c>
       <c r="H2" t="n">
-        <v>0.583415667758793</v>
+        <v>0.580568672388599</v>
       </c>
       <c r="I2" t="n">
-        <v>0.541032956683258</v>
+        <v>0.571856144674305</v>
       </c>
       <c r="J2" t="n">
-        <v>0.555937984002362</v>
+        <v>0.559591240491661</v>
       </c>
       <c r="K2" t="n">
-        <v>0.594680510488257</v>
+        <v>0.569752323015376</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/share_solidarity_supported_mean.xlsx
+++ b/xlsx/country_comparison/share_solidarity_supported_mean.xlsx
@@ -419,34 +419,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.617084851133493</v>
+        <v>0.5554382421192</v>
       </c>
       <c r="C2" t="n">
-        <v>0.592215708100967</v>
+        <v>0.555939224519575</v>
       </c>
       <c r="D2" t="n">
-        <v>0.652044918001583</v>
+        <v>0.649567380855022</v>
       </c>
       <c r="E2" t="n">
-        <v>0.351045104510451</v>
+        <v>0.38036034521697</v>
       </c>
       <c r="F2" t="n">
-        <v>0.561783834211927</v>
+        <v>0.495641921375649</v>
       </c>
       <c r="G2" t="n">
-        <v>0.663781217165708</v>
+        <v>0.643799676854309</v>
       </c>
       <c r="H2" t="n">
-        <v>0.580568672388599</v>
+        <v>0.592269938243578</v>
       </c>
       <c r="I2" t="n">
-        <v>0.571856144674305</v>
+        <v>0.550480347050562</v>
       </c>
       <c r="J2" t="n">
-        <v>0.559591240491661</v>
+        <v>0.555453449089353</v>
       </c>
       <c r="K2" t="n">
-        <v>0.569752323015376</v>
+        <v>0.478784801372714</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/share_solidarity_supported_mean.xlsx
+++ b/xlsx/country_comparison/share_solidarity_supported_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,25 +32,25 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">share_solidarity_supported</t>
@@ -413,40 +419,52 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5554382421192</v>
+        <v>0.508962495853851</v>
       </c>
       <c r="C2" t="n">
-        <v>0.555939224519575</v>
+        <v>0.563770192004184</v>
       </c>
       <c r="D2" t="n">
-        <v>0.649567380855022</v>
+        <v>0.546518787466243</v>
       </c>
       <c r="E2" t="n">
-        <v>0.38036034521697</v>
+        <v>0.553113452044712</v>
       </c>
       <c r="F2" t="n">
-        <v>0.495641921375649</v>
+        <v>0.651321187680723</v>
       </c>
       <c r="G2" t="n">
-        <v>0.643799676854309</v>
+        <v>0.486594535915122</v>
       </c>
       <c r="H2" t="n">
-        <v>0.592269938243578</v>
+        <v>0.580138863192046</v>
       </c>
       <c r="I2" t="n">
-        <v>0.550480347050562</v>
+        <v>0.552228264162119</v>
       </c>
       <c r="J2" t="n">
-        <v>0.555453449089353</v>
+        <v>0.525215324624544</v>
       </c>
       <c r="K2" t="n">
-        <v>0.478784801372714</v>
+        <v>0.382737103865716</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.637895863088784</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.484971744898942</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/share_solidarity_supported_mean.xlsx
+++ b/xlsx/country_comparison/share_solidarity_supported_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,13 +47,16 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">share_solidarity_supported</t>
+    <t xml:space="preserve">Share of plausible global policies supported</t>
   </si>
 </sst>
 </file>
@@ -425,13 +428,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.508962495853851</v>
+        <v>0.509043169338531</v>
       </c>
       <c r="C2" t="n">
         <v>0.563770192004184</v>
@@ -446,13 +452,13 @@
         <v>0.651321187680723</v>
       </c>
       <c r="G2" t="n">
-        <v>0.486594535915122</v>
+        <v>0.486594535915121</v>
       </c>
       <c r="H2" t="n">
         <v>0.580138863192046</v>
       </c>
       <c r="I2" t="n">
-        <v>0.552228264162119</v>
+        <v>0.552228264162118</v>
       </c>
       <c r="J2" t="n">
         <v>0.525215324624544</v>
@@ -461,9 +467,12 @@
         <v>0.382737103865716</v>
       </c>
       <c r="L2" t="n">
+        <v>0.509538191879315</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.637895863088784</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.484971744898942</v>
       </c>
     </row>

--- a/xlsx/country_comparison/share_solidarity_supported_mean.xlsx
+++ b/xlsx/country_comparison/share_solidarity_supported_mean.xlsx
@@ -437,7 +437,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.509043169338531</v>
+        <v>0.508084416940065</v>
       </c>
       <c r="C2" t="n">
         <v>0.563770192004184</v>
@@ -458,22 +458,22 @@
         <v>0.580138863192046</v>
       </c>
       <c r="I2" t="n">
-        <v>0.552228264162118</v>
+        <v>0.552228264162119</v>
       </c>
       <c r="J2" t="n">
         <v>0.525215324624544</v>
       </c>
       <c r="K2" t="n">
-        <v>0.382737103865716</v>
+        <v>0.382887811020303</v>
       </c>
       <c r="L2" t="n">
-        <v>0.509538191879315</v>
+        <v>0.502900789618378</v>
       </c>
       <c r="M2" t="n">
         <v>0.637895863088784</v>
       </c>
       <c r="N2" t="n">
-        <v>0.484971744898942</v>
+        <v>0.484917310839545</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/share_solidarity_supported_mean.xlsx
+++ b/xlsx/country_comparison/share_solidarity_supported_mean.xlsx
@@ -437,7 +437,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.508084416940065</v>
+        <v>0.508266663286271</v>
       </c>
       <c r="C2" t="n">
         <v>0.563770192004184</v>
@@ -467,7 +467,7 @@
         <v>0.382887811020303</v>
       </c>
       <c r="L2" t="n">
-        <v>0.502900789618378</v>
+        <v>0.504203025891826</v>
       </c>
       <c r="M2" t="n">
         <v>0.637895863088784</v>
